--- a/data/question_answer/updated_file.xlsx
+++ b/data/question_answer/updated_file.xlsx
@@ -467,21 +467,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vì sao cần bón phân cho cây?
-Lý do gì mà phải bón phân cho cây trồng?
-Tại sao cây trồng cần phải được bón phân?
-Bón phân cho cây có mục đích gì?
-Vì sao cây cần phân bón để phát triển?
-Ta tại saoo cần bons phân cho cây?
-Tai sao can bon phan cho cay trong?
-Cần bón phân cho cây để làm gì
-tại sa0 phải bons phân cho cây
-Bón phân cho cây có lợi ích gì vậy?
-Tại làm sao mà cần phải bón phân cho cây cối?
-Vì sao phân bón là cần thiết cho sự phát triển của cây?
-Lý do gì cần thiết cho cây được bón phân ạ?
-Có cần thiết phải bon phan cho cây không?
-Bon phon cho cay la co muc dich gi</t>
+          <t>Tại sao lại cần phải bón phân cho cây?
+Bón phân cho cây có ý nghĩa gì?
+Lý do nào khiến chúng ta cần bón phân cho cây trồng?
+Tại sao cây cần được bón phân?
+Có lý do gì để bón phân cho cây không?
+Tại sao việc bón phân cho cây lại quan trọng?
+Bón phân cho cây có tác dụng gì?
+Có cần phải bón phân cho cây hay không?
+Vì sao bón phân là cần thiết cho cây xanh?
+Tại sao phải cung cấp phân bón cho cây?
+Thế nào là lý dô cần bons phan cho cây
+Bón phan cho cây có lơi ích gì
+Bón phan cho cây trongt tại sao lại cần thiết
+Có phải bón phan là điêu cần làm cho cây khong
+Lơi ích của việc bón phan cho cây là gi</t>
         </is>
       </c>
     </row>
@@ -497,21 +497,21 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nhà máy Đạm Cà Mau nằm ở chỗ nào?
-Đạm Cà Mau tọa lạc ở đâu vậy?
-Bạn có biết Đạm Cà Mau ở đâu không?
-Nơi nào có Đạm Cà Mau?
-Địa chỉ của nhà máy Đạm Cà Mau là gì?
-Đạm Ca Mau o dau
-Dam Ca Mau o vi tri nao?
-Đam Cà Mau co o chỗ nào không?
-Đài Cà Mau đặt tại đâu?
-Đam Ca Mau nằm ở đâu
-Dam Ca Mau o dau vay?
-Cho hỏi vị trí Đạm Cà Mau là gì?
-Đạm Cà Mau thì ở đâu nhỉ?
-Bạn biết Đạm Cà Mau toạ lạc ở đâu không?
-Đạm Ca Mau tọa độ thế nào?</t>
+          <t>Đạm Cà Mau nằm ở đâu?
+Bạn có biết Đạm Cà Mau ở vị trí nào không?
+Địa chỉ của Đạm Cà Mau là gì?
+Cho tôi hỏi, Đạm Cà Mau tọa lạc ở đâu vậy?
+Đạm Cà Mau thì nằm ở khu vực nào?
+Hãy cho tôi biết vị trí của Đạm Cà Mau?
+Đạm Cà Mau đang ở chỗ nào?
+Cà Mau có đạm thì ở đâu nhỉ?
+Đạm Cà Mau được đặt tại đâu?
+Cụ thể Đạm Cà Mau ở Đâu vậy bạn?
+Mình muốn biết Đam Cà Mau nằm tai đâu
+Đam Cà Mau co địa diem ở chổ nào khong
+Cà Mau có đam ở ku vực nào vậy
+Điạ điểm của Đam Cà Mau là ở đâu
+Bạn có thể cho biết Đam Cà Mau vị trí là ở đâu khong</t>
         </is>
       </c>
     </row>
@@ -527,21 +527,22 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Làm cách nào để chăm sóc cây nhãn?
-Quy trình chăm sóc cây nhãn ra sao?
-Chăm sóc cây nhãn cần lưu ý điều gì?
-Cây nhãn cần chăm sóc thế nào cho tốt?
-Như thế nào để bảo dưỡng cây nhãn hiệu quả?
-Cach cham soc cay nhan la sao
-Làm sao để chăm cây nhãn đúng cách
-Soi chỉ cách bons cay nhản dung
-Cách chăm nom cây nhãn hiệu quả là gì?
-Cham cay nhan nao tot
-Cây nhãn cần bón phân và tưới nước thế nào?
-Dưỡng cây nhãn cần những bước nào?
-Cham soc cay nhạn lam sao
-Cây nhãn cần chăm bón như thế nào để phát triển?
-Bon phan tieng cay nhan ra sao</t>
+          <t>Cách chăm sóc cây nhãn ra sao?
+Bạn chăm sóc cây nhãn bằng cách nào?
+Làm thế nào để chăm sóc cây nhãn tốt nhất?
+Chăm sóc cây nhãn thì cần lưu ý điều gì?
+Cần phải chăm sóc cây nhãn như thế nào?
+Chăm sóc cây nhãn phải thực hiện sao cho đúng?
+Có những cách nào để chăm sóc cây nhãn?
+Cây nhãn thì cần được chăm sóc như thế nào?
+Phương pháp chăm sóc cây nhãn là gì?
+Chăm sóc cây nhãn cần chú ý đến điều gì không?
+Những điều cần biết khi chăm sóc cây nhãn?
+Thao tác cham soc cay nhan dien ra the nao
+Minh nen cham soc cay nhan nhu the nao cho hieu qua
+Khi cham soc cay nhan, can lam gi
+Nhung bi quet cham soc cay nhan la gi
+Cay nhan can duoc cham soc ra sao de phat trien tot</t>
         </is>
       </c>
     </row>
